--- a/public/data/res/family/510411200202/总表.xlsx
+++ b/public/data/res/family/510411200202/总表.xlsx
@@ -1,97 +1,550 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Che\Documents\Projects\Nodejs\Yb.CloudDataApi.Vue\public\data\res\family\510411200202\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC166EE-E601-4C1A-B0A2-8869306A9B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="18375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+  <si>
+    <t>名称</t>
+  </si>
   <si>
     <t>总户数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>达标户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低收入边缘人员占比</t>
+  </si>
+  <si>
+    <t>低收入一般监测群体占比</t>
+  </si>
+  <si>
+    <t>低收入重点监测群体占比</t>
+  </si>
+  <si>
+    <t>达标户占比</t>
+  </si>
+  <si>
+    <t>男性比例</t>
+  </si>
+  <si>
+    <t>女性比例</t>
+  </si>
+  <si>
+    <t>18岁以下</t>
+  </si>
+  <si>
+    <t>18-25岁</t>
+  </si>
+  <si>
+    <t>26-35岁</t>
+  </si>
+  <si>
+    <t>36-45岁</t>
+  </si>
+  <si>
+    <t>45岁以上</t>
+  </si>
+  <si>
+    <t>未买医保</t>
+  </si>
+  <si>
+    <t>D级危房</t>
+  </si>
+  <si>
+    <t>缺水</t>
+  </si>
+  <si>
+    <t>辍学学生</t>
+  </si>
+  <si>
+    <t>产业帮扶</t>
+  </si>
+  <si>
+    <t>就业促进</t>
+  </si>
+  <si>
+    <t>教育帮扶</t>
+  </si>
+  <si>
+    <t>医疗救助</t>
+  </si>
+  <si>
+    <t>住房保障</t>
+  </si>
+  <si>
+    <t>最低生活保障</t>
+  </si>
+  <si>
+    <t>临时救助</t>
+  </si>
+  <si>
+    <t>慈善救助</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>住房好指标</t>
+  </si>
+  <si>
+    <t>家风好指标</t>
+  </si>
+  <si>
+    <t>医疗好指标</t>
+  </si>
+  <si>
+    <t>生活好指标</t>
+  </si>
+  <si>
+    <t>教育好指标</t>
+  </si>
+  <si>
+    <t>住房好现状</t>
+  </si>
+  <si>
+    <t>家风好现状</t>
+  </si>
+  <si>
+    <t>医疗好现状</t>
+  </si>
+  <si>
+    <t>生活好现状</t>
+  </si>
+  <si>
+    <t>教育好现状</t>
+  </si>
+  <si>
+    <t>财产性收入</t>
+  </si>
+  <si>
+    <t>经营性收入</t>
+  </si>
+  <si>
+    <t>工资性收入</t>
+  </si>
+  <si>
+    <t>转移性收入</t>
+  </si>
+  <si>
+    <t>低收入群体</t>
+  </si>
+  <si>
+    <t>中等收入群体</t>
+  </si>
+  <si>
+    <t>高收入群体</t>
   </si>
   <si>
     <t>数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低收入边缘人员占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低收入一般监测群体占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达标户占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低收入重点监测群体占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -99,24 +552,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -165,7 +916,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -200,7 +951,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -374,72 +1125,489 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:GP5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="5" max="5" width="19.59765625" customWidth="1"/>
-    <col min="6" max="6" width="28.19921875" customWidth="1"/>
-    <col min="7" max="7" width="23.19921875" customWidth="1"/>
+    <col min="1" max="1" width="8.675" style="1" customWidth="1"/>
+    <col min="2" max="4" width="10.5083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5083333333333" style="1" customWidth="1"/>
+    <col min="6" max="7" width="14.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.175" style="1" customWidth="1"/>
+    <col min="9" max="10" width="12.3416666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5083333333333" style="1" customWidth="1"/>
+    <col min="12" max="14" width="11.675" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5083333333333" style="1" customWidth="1"/>
+    <col min="16" max="24" width="9" style="1"/>
+    <col min="25" max="25" width="18.5" style="1" customWidth="1"/>
+    <col min="26" max="28" width="9" style="1"/>
+    <col min="29" max="29" width="11.75" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="13" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="11.375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="14.25" style="1" customWidth="1"/>
+    <col min="37" max="37" width="10.75" style="1" customWidth="1"/>
+    <col min="38" max="38" width="12.625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12.25" style="1" customWidth="1"/>
+    <col min="40" max="40" width="12.75" style="1" customWidth="1"/>
+    <col min="41" max="41" width="11.75" style="1" customWidth="1"/>
+    <col min="42" max="42" width="12.625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="13.55" style="1" customWidth="1"/>
+    <col min="44" max="44" width="15.6583333333333" style="1" customWidth="1"/>
+    <col min="45" max="45" width="21.5333333333333" style="1" customWidth="1"/>
+    <col min="46" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" ht="39" customHeight="1" spans="1:198">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CF1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CH1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2"/>
+      <c r="CN1" s="2"/>
+      <c r="CO1" s="2"/>
+      <c r="CP1" s="2"/>
+      <c r="CQ1" s="2"/>
+      <c r="CR1" s="2"/>
+      <c r="CS1" s="2"/>
+      <c r="CT1" s="2"/>
+      <c r="CU1" s="2"/>
+      <c r="CV1" s="2"/>
+      <c r="CW1" s="2"/>
+      <c r="CX1" s="2"/>
+      <c r="CY1" s="2"/>
+      <c r="CZ1" s="2"/>
+      <c r="DA1" s="2"/>
+      <c r="DB1" s="2"/>
+      <c r="DC1" s="2"/>
+      <c r="DD1" s="2"/>
+      <c r="DE1" s="2"/>
+      <c r="DF1" s="2"/>
+      <c r="DG1" s="2"/>
+      <c r="DH1" s="2"/>
+      <c r="DI1" s="2"/>
+      <c r="DJ1" s="2"/>
+      <c r="DK1" s="2"/>
+      <c r="DL1" s="2"/>
+      <c r="DM1" s="2"/>
+      <c r="DN1" s="2"/>
+      <c r="DO1" s="2"/>
+      <c r="DP1" s="2"/>
+      <c r="DQ1" s="2"/>
+      <c r="DR1" s="2"/>
+      <c r="DS1" s="2"/>
+      <c r="DT1" s="2"/>
+      <c r="DU1" s="2"/>
+      <c r="DV1" s="2"/>
+      <c r="DW1" s="2"/>
+      <c r="DX1" s="2"/>
+      <c r="DY1" s="2"/>
+      <c r="DZ1" s="2"/>
+      <c r="EA1" s="2"/>
+      <c r="EB1" s="2"/>
+      <c r="EC1" s="2"/>
+      <c r="ED1" s="2"/>
+      <c r="EE1" s="2"/>
+      <c r="EF1" s="2"/>
+      <c r="EG1" s="2"/>
+      <c r="EH1" s="2"/>
+      <c r="EI1" s="2"/>
+      <c r="EJ1" s="2"/>
+      <c r="EK1" s="2"/>
+      <c r="EL1" s="2"/>
+      <c r="EM1" s="2"/>
+      <c r="EN1" s="2"/>
+      <c r="EO1" s="2"/>
+      <c r="EP1" s="2"/>
+      <c r="EQ1" s="2"/>
+      <c r="ER1" s="2"/>
+      <c r="ES1" s="2"/>
+      <c r="ET1" s="2"/>
+      <c r="EU1" s="2"/>
+      <c r="EV1" s="2"/>
+      <c r="EW1" s="2"/>
+      <c r="EX1" s="2"/>
+      <c r="EY1" s="2"/>
+      <c r="EZ1" s="2"/>
+      <c r="FA1" s="2"/>
+      <c r="FB1" s="2"/>
+      <c r="FC1" s="2"/>
+      <c r="FD1" s="2"/>
+      <c r="FE1" s="2"/>
+      <c r="FF1" s="2"/>
+      <c r="FG1" s="2"/>
+      <c r="FH1" s="2"/>
+      <c r="FI1" s="2"/>
+      <c r="FJ1" s="2"/>
+      <c r="FK1" s="2"/>
+      <c r="FL1" s="2"/>
+      <c r="FM1" s="2"/>
+      <c r="FN1" s="2"/>
+      <c r="FO1" s="2"/>
+      <c r="FP1" s="2"/>
+      <c r="FQ1" s="2"/>
+      <c r="FR1" s="2"/>
+      <c r="FS1" s="2"/>
+      <c r="FT1" s="2"/>
+      <c r="FU1" s="2"/>
+      <c r="FV1" s="2"/>
+      <c r="FW1" s="2"/>
+      <c r="FX1" s="2"/>
+      <c r="FY1" s="2"/>
+      <c r="FZ1" s="2"/>
+      <c r="GA1" s="2"/>
+      <c r="GB1" s="2"/>
+      <c r="GC1" s="2"/>
+      <c r="GD1" s="2"/>
+      <c r="GE1" s="2"/>
+      <c r="GF1" s="2"/>
+      <c r="GG1" s="2"/>
+      <c r="GH1" s="2"/>
+      <c r="GI1" s="2"/>
+      <c r="GJ1" s="2"/>
+      <c r="GK1" s="2"/>
+      <c r="GL1" s="2"/>
+      <c r="GM1" s="2"/>
+      <c r="GN1" s="2"/>
+      <c r="GO1" s="2"/>
+      <c r="GP1" s="2"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:50">
+      <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4">
+        <v>380</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1527</v>
+      </c>
+      <c r="D2" s="4">
+        <v>193</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45.53</v>
+      </c>
+      <c r="F2" s="4">
+        <v>25.79</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4.21</v>
+      </c>
+      <c r="H2" s="4">
+        <v>24.47</v>
+      </c>
+      <c r="I2" s="4">
+        <v>49.1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>50.9</v>
+      </c>
+      <c r="K2" s="4">
+        <v>18.152</v>
+      </c>
+      <c r="L2" s="4">
+        <v>6.553</v>
+      </c>
+      <c r="M2" s="4">
+        <v>6.553</v>
+      </c>
+      <c r="N2" s="4">
+        <v>6.553</v>
+      </c>
+      <c r="O2" s="4">
+        <v>6.553</v>
+      </c>
+      <c r="P2" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="4">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>63.1</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>63.1</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>63.1</v>
+      </c>
+      <c r="AP2" s="4">
+        <v>63.1</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>63.1</v>
+      </c>
+      <c r="AR2" s="4">
+        <v>63.1</v>
+      </c>
+      <c r="AS2" s="4">
+        <v>63.1</v>
+      </c>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>380</v>
-      </c>
-      <c r="C2">
-        <v>1527</v>
-      </c>
-      <c r="D2">
-        <v>193</v>
-      </c>
+    <row r="5" ht="15" spans="13:13">
+      <c r="M5" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>